--- a/Fundementals/Solution/BikeStoreSample.xlsx
+++ b/Fundementals/Solution/BikeStoreSample.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Elevation\Excel\Fundementals\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B03100-73CF-4C08-8963-5F7391B99005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4FC26A-0248-444C-9A9F-AA4FC8F3739B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27300" yWindow="975" windowWidth="26235" windowHeight="11385" xr2:uid="{E731B28F-D92B-4ABF-AE71-A2BC403318D1}"/>
+    <workbookView xWindow="1275" yWindow="2655" windowWidth="30120" windowHeight="11385" activeTab="1" xr2:uid="{E731B28F-D92B-4ABF-AE71-A2BC403318D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OrderDetailsData" sheetId="1" r:id="rId1"/>
+    <sheet name="YearlyIncome" sheetId="2" r:id="rId2"/>
+    <sheet name="MonthlyIncome" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="162">
   <si>
     <t>order_id</t>
   </si>
@@ -501,6 +503,24 @@
   </si>
   <si>
     <t>Electra Cruiser 1 - 2016/2017/2018</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>OrderYear</t>
+  </si>
+  <si>
+    <t>OrderMonth</t>
   </si>
 </sst>
 </file>
@@ -542,12 +562,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -556,15 +591,19 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -881,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4CAE42-8427-4763-99BF-87F494943F45}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
-      <selection activeCell="P102" sqref="P102"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,21 +932,22 @@
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="6" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -923,7 +963,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -932,10 +972,10 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -956,8 +996,14 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -973,25 +1019,25 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>1799.99</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <f>F2*G2</f>
         <v>3599.98</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <f>F2*I2</f>
         <v>125.99930000000002</v>
       </c>
-      <c r="K2" s="5">
-        <f>H2-G2*J2</f>
+      <c r="K2" s="10">
+        <f>H2-J2*G2</f>
         <v>3347.9814000000001</v>
       </c>
       <c r="L2" s="1">
@@ -1007,11 +1053,19 @@
         <v>20</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P47" si="0">IF(YEAR(L2) &gt; D2, "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <f>IF(YEAR(L2) &gt; D2, "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Q2">
+        <f>YEAR(L2)</f>
+        <v>2016</v>
+      </c>
+      <c r="R2">
+        <f>MONTH(L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>34</v>
       </c>
@@ -1027,25 +1081,25 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>1549</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H66" si="1">F3*G3</f>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H66" si="0">F3*G3</f>
         <v>3098</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0.1</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J66" si="2">F3*I3</f>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J66" si="1">F3*I3</f>
         <v>154.9</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K66" si="3">H3-G3*J3</f>
+      <c r="K3" s="10">
+        <f t="shared" ref="K3:K66" si="2">H3-J3*G3</f>
         <v>2788.2</v>
       </c>
       <c r="L3" s="1">
@@ -1061,11 +1115,19 @@
         <v>20</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P3:P66" si="3">IF(YEAR(L3) &gt; D3, "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="4">YEAR(L3)</f>
+        <v>2016</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="5">MONTH(L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -1081,25 +1143,25 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>429</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>858</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="3">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="K4" s="10">
         <f t="shared" si="2"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="3"/>
         <v>686.4</v>
       </c>
       <c r="L4" s="1">
@@ -1115,11 +1177,19 @@
         <v>20</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>88</v>
       </c>
@@ -1135,25 +1205,25 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>1549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>1549</v>
+      </c>
+      <c r="I5" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>1549</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J5" s="3">
+        <v>108.43</v>
+      </c>
+      <c r="K5" s="10">
         <f t="shared" si="2"/>
-        <v>108.43</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="3"/>
         <v>1440.57</v>
       </c>
       <c r="L5" s="1">
@@ -1169,11 +1239,19 @@
         <v>26</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>88</v>
       </c>
@@ -1189,25 +1267,25 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>1799.99</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>3599.98</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>3599.98</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="3">
+        <v>179.99900000000002</v>
+      </c>
+      <c r="K6" s="10">
         <f t="shared" si="2"/>
-        <v>179.99900000000002</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="3"/>
         <v>3239.982</v>
       </c>
       <c r="L6" s="1">
@@ -1223,11 +1301,19 @@
         <v>26</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>88</v>
       </c>
@@ -1243,25 +1329,25 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>3999.99</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>3999.99</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>3999.99</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="3">
+        <v>399.99900000000002</v>
+      </c>
+      <c r="K7" s="10">
         <f t="shared" si="2"/>
-        <v>399.99900000000002</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="3"/>
         <v>3599.991</v>
       </c>
       <c r="L7" s="1">
@@ -1277,11 +1363,19 @@
         <v>26</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>125</v>
       </c>
@@ -1297,25 +1391,25 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>429</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>429</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="3">
+        <v>42.900000000000006</v>
+      </c>
+      <c r="K8" s="10">
         <f t="shared" si="2"/>
-        <v>42.900000000000006</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="3"/>
         <v>386.1</v>
       </c>
       <c r="L8" s="1">
@@ -1331,11 +1425,19 @@
         <v>29</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>126</v>
       </c>
@@ -1351,25 +1453,25 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>2999.99</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>5999.98</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>5999.98</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J9" s="3">
+        <v>149.99949999999998</v>
+      </c>
+      <c r="K9" s="10">
         <f t="shared" si="2"/>
-        <v>149.99949999999998</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
         <v>5699.9809999999998</v>
       </c>
       <c r="L9" s="1">
@@ -1385,11 +1487,19 @@
         <v>33</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>214</v>
       </c>
@@ -1405,25 +1515,25 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>269.99</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>269.99</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>269.99</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="3">
+        <v>26.999000000000002</v>
+      </c>
+      <c r="K10" s="10">
         <f t="shared" si="2"/>
-        <v>26.999000000000002</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="3"/>
         <v>242.99100000000001</v>
       </c>
       <c r="L10" s="1">
@@ -1439,11 +1549,19 @@
         <v>37</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>240</v>
       </c>
@@ -1459,25 +1577,25 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>2999.99</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>2999.99</v>
+      </c>
+      <c r="I11" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>2999.99</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J11" s="3">
+        <v>209.99930000000001</v>
+      </c>
+      <c r="K11" s="10">
         <f t="shared" si="2"/>
-        <v>209.99930000000001</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="3"/>
         <v>2789.9906999999998</v>
       </c>
       <c r="L11" s="1">
@@ -1493,11 +1611,19 @@
         <v>39</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>240</v>
       </c>
@@ -1513,25 +1639,25 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>1799.99</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>1799.99</v>
+      </c>
+      <c r="I12" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>1799.99</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J12" s="3">
+        <v>125.99930000000002</v>
+      </c>
+      <c r="K12" s="10">
         <f t="shared" si="2"/>
-        <v>125.99930000000002</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="3"/>
         <v>1673.9907000000001</v>
       </c>
       <c r="L12" s="1">
@@ -1547,11 +1673,19 @@
         <v>39</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>240</v>
       </c>
@@ -1567,25 +1701,25 @@
       <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>1320.99</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>1320.99</v>
+      </c>
+      <c r="I13" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>1320.99</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J13" s="3">
+        <v>92.469300000000004</v>
+      </c>
+      <c r="K13" s="10">
         <f t="shared" si="2"/>
-        <v>92.469300000000004</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="3"/>
         <v>1228.5207</v>
       </c>
       <c r="L13" s="1">
@@ -1601,11 +1735,19 @@
         <v>39</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>240</v>
       </c>
@@ -1621,25 +1763,25 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>449</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="I14" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>898</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J14" s="3">
+        <v>31.430000000000003</v>
+      </c>
+      <c r="K14" s="10">
         <f t="shared" si="2"/>
-        <v>31.430000000000003</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="3"/>
         <v>835.14</v>
       </c>
       <c r="L14" s="1">
@@ -1655,11 +1797,19 @@
         <v>39</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>261</v>
       </c>
@@ -1675,25 +1825,25 @@
       <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>599.99</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>1199.98</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
-        <v>1199.98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J15" s="3">
+        <v>29.999500000000001</v>
+      </c>
+      <c r="K15" s="10">
         <f t="shared" si="2"/>
-        <v>29.999500000000001</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="3"/>
         <v>1139.981</v>
       </c>
       <c r="L15" s="1">
@@ -1709,11 +1859,19 @@
         <v>46</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>261</v>
       </c>
@@ -1729,25 +1887,25 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>269.99</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>269.99</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
-        <v>269.99</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="3">
+        <v>26.999000000000002</v>
+      </c>
+      <c r="K16" s="10">
         <f t="shared" si="2"/>
-        <v>26.999000000000002</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
         <v>242.99100000000001</v>
       </c>
       <c r="L16" s="1">
@@ -1763,11 +1921,19 @@
         <v>46</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>261</v>
       </c>
@@ -1783,25 +1949,25 @@
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>429</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
-        <v>858</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="3">
+        <v>42.900000000000006</v>
+      </c>
+      <c r="K17" s="10">
         <f t="shared" si="2"/>
-        <v>42.900000000000006</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="3"/>
         <v>772.2</v>
       </c>
       <c r="L17" s="1">
@@ -1817,11 +1983,19 @@
         <v>46</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>295</v>
       </c>
@@ -1837,25 +2011,25 @@
       <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>269.99</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>539.98</v>
+      </c>
+      <c r="I18" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
-        <v>539.98</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J18" s="3">
+        <v>18.899300000000004</v>
+      </c>
+      <c r="K18" s="10">
         <f t="shared" si="2"/>
-        <v>18.899300000000004</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="3"/>
         <v>502.1814</v>
       </c>
       <c r="L18" s="1">
@@ -1871,11 +2045,19 @@
         <v>49</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>352</v>
       </c>
@@ -1891,25 +2073,25 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>1680.99</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>1680.99</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>1680.99</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J19" s="3">
+        <v>336.19800000000004</v>
+      </c>
+      <c r="K19" s="10">
         <f t="shared" si="2"/>
-        <v>336.19800000000004</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="3"/>
         <v>1344.7919999999999</v>
       </c>
       <c r="L19" s="1">
@@ -1925,11 +2107,19 @@
         <v>52</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>352</v>
       </c>
@@ -1945,25 +2135,25 @@
       <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>269.99</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>269.99</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>269.99</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J20" s="3">
+        <v>53.998000000000005</v>
+      </c>
+      <c r="K20" s="10">
         <f t="shared" si="2"/>
-        <v>53.998000000000005</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="3"/>
         <v>215.99200000000002</v>
       </c>
       <c r="L20" s="1">
@@ -1979,11 +2169,19 @@
         <v>52</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>353</v>
       </c>
@@ -1999,25 +2197,25 @@
       <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <v>749.99</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>1499.98</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>1499.98</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J21" s="3">
+        <v>149.99800000000002</v>
+      </c>
+      <c r="K21" s="10">
         <f t="shared" si="2"/>
-        <v>149.99800000000002</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="3"/>
         <v>1199.9839999999999</v>
       </c>
       <c r="L21" s="1">
@@ -2033,11 +2231,19 @@
         <v>56</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>524</v>
       </c>
@@ -2053,25 +2259,25 @@
       <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>1680.99</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>1680.99</v>
+      </c>
+      <c r="I22" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>1680.99</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J22" s="3">
+        <v>117.66930000000001</v>
+      </c>
+      <c r="K22" s="10">
         <f t="shared" si="2"/>
-        <v>117.66930000000001</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="3"/>
         <v>1563.3207</v>
       </c>
       <c r="L22" s="1">
@@ -2087,11 +2293,19 @@
         <v>58</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>524</v>
       </c>
@@ -2107,25 +2321,25 @@
       <c r="E23" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>749.99</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>749.99</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>749.99</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J23" s="3">
+        <v>37.499500000000005</v>
+      </c>
+      <c r="K23" s="10">
         <f t="shared" si="2"/>
-        <v>37.499500000000005</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="3"/>
         <v>712.4905</v>
       </c>
       <c r="L23" s="1">
@@ -2141,11 +2355,19 @@
         <v>58</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>524</v>
       </c>
@@ -2161,25 +2383,25 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <v>2999.99</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>2999.99</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="1"/>
-        <v>2999.99</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J24" s="3">
+        <v>599.99799999999993</v>
+      </c>
+      <c r="K24" s="10">
         <f t="shared" si="2"/>
-        <v>599.99799999999993</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="3"/>
         <v>2399.9919999999997</v>
       </c>
       <c r="L24" s="1">
@@ -2195,11 +2417,19 @@
         <v>58</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>524</v>
       </c>
@@ -2215,25 +2445,25 @@
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="6">
         <v>999.99</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>1999.98</v>
+      </c>
+      <c r="I25" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="1"/>
-        <v>1999.98</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J25" s="3">
+        <v>69.999300000000005</v>
+      </c>
+      <c r="K25" s="10">
         <f t="shared" si="2"/>
-        <v>69.999300000000005</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="3"/>
         <v>1859.9814000000001</v>
       </c>
       <c r="L25" s="1">
@@ -2249,11 +2479,19 @@
         <v>58</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>524</v>
       </c>
@@ -2269,25 +2507,25 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="6">
         <v>599.99</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>599.99</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>599.99</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J26" s="3">
+        <v>29.999500000000001</v>
+      </c>
+      <c r="K26" s="10">
         <f t="shared" si="2"/>
-        <v>29.999500000000001</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="3"/>
         <v>569.9905</v>
       </c>
       <c r="L26" s="1">
@@ -2303,11 +2541,19 @@
         <v>58</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>557</v>
       </c>
@@ -2323,25 +2569,25 @@
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>2999.99</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>5999.98</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>5999.98</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="3">
+        <v>299.99899999999997</v>
+      </c>
+      <c r="K27" s="10">
         <f t="shared" si="2"/>
-        <v>299.99899999999997</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="3"/>
         <v>5399.982</v>
       </c>
       <c r="L27" s="1">
@@ -2357,11 +2603,19 @@
         <v>61</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>557</v>
       </c>
@@ -2377,25 +2631,25 @@
       <c r="E28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>1549</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>1549</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>1549</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="K28" s="10">
         <f t="shared" si="2"/>
-        <v>154.9</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="3"/>
         <v>1394.1</v>
       </c>
       <c r="L28" s="1">
@@ -2411,11 +2665,19 @@
         <v>61</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>570</v>
       </c>
@@ -2431,25 +2693,25 @@
       <c r="E29" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="6">
         <v>449</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="I29" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="1"/>
-        <v>449</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J29" s="3">
+        <v>31.430000000000003</v>
+      </c>
+      <c r="K29" s="10">
         <f t="shared" si="2"/>
-        <v>31.430000000000003</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="3"/>
         <v>417.57</v>
       </c>
       <c r="L29" s="1">
@@ -2465,11 +2727,19 @@
         <v>63</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>570</v>
       </c>
@@ -2485,25 +2755,25 @@
       <c r="E30" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="6">
         <v>549.99</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>1099.98</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="1"/>
-        <v>1099.98</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="3">
+        <v>54.999000000000002</v>
+      </c>
+      <c r="K30" s="10">
         <f t="shared" si="2"/>
-        <v>54.999000000000002</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="3"/>
         <v>989.98199999999997</v>
       </c>
       <c r="L30" s="1">
@@ -2519,11 +2789,19 @@
         <v>63</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>570</v>
       </c>
@@ -2539,25 +2817,25 @@
       <c r="E31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="6">
         <v>999.99</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>1999.98</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="1"/>
-        <v>1999.98</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J31" s="3">
+        <v>199.99800000000002</v>
+      </c>
+      <c r="K31" s="10">
         <f t="shared" si="2"/>
-        <v>199.99800000000002</v>
-      </c>
-      <c r="K31" s="5">
-        <f t="shared" si="3"/>
         <v>1599.9839999999999</v>
       </c>
       <c r="L31" s="1">
@@ -2573,11 +2851,19 @@
         <v>63</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>570</v>
       </c>
@@ -2593,25 +2879,25 @@
       <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="6">
         <v>1680.99</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
+        <f t="shared" si="0"/>
+        <v>1680.99</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="6">
         <f t="shared" si="1"/>
-        <v>1680.99</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="3">
+        <v>168.09900000000002</v>
+      </c>
+      <c r="K32" s="10">
         <f t="shared" si="2"/>
-        <v>168.09900000000002</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="3"/>
         <v>1512.8910000000001</v>
       </c>
       <c r="L32" s="1">
@@ -2627,11 +2913,19 @@
         <v>63</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>570</v>
       </c>
@@ -2647,25 +2941,25 @@
       <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="6">
         <v>599.99</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>599.99</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="1"/>
-        <v>599.99</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J33" s="3">
+        <v>29.999500000000001</v>
+      </c>
+      <c r="K33" s="10">
         <f t="shared" si="2"/>
-        <v>29.999500000000001</v>
-      </c>
-      <c r="K33" s="5">
-        <f t="shared" si="3"/>
         <v>569.9905</v>
       </c>
       <c r="L33" s="1">
@@ -2681,11 +2975,19 @@
         <v>63</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>585</v>
       </c>
@@ -2701,25 +3003,25 @@
       <c r="E34" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="6">
         <v>1549</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>1549</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="1"/>
-        <v>1549</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J34" s="3">
+        <v>309.8</v>
+      </c>
+      <c r="K34" s="10">
         <f t="shared" si="2"/>
-        <v>309.8</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" si="3"/>
         <v>1239.2</v>
       </c>
       <c r="L34" s="1">
@@ -2735,11 +3037,19 @@
         <v>66</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>585</v>
       </c>
@@ -2755,25 +3065,25 @@
       <c r="E35" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="6">
         <v>449</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="6">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="1"/>
-        <v>898</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J35" s="3">
+        <v>89.800000000000011</v>
+      </c>
+      <c r="K35" s="10">
         <f t="shared" si="2"/>
-        <v>89.800000000000011</v>
-      </c>
-      <c r="K35" s="5">
-        <f t="shared" si="3"/>
         <v>718.4</v>
       </c>
       <c r="L35" s="1">
@@ -2789,11 +3099,19 @@
         <v>66</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>585</v>
       </c>
@@ -2809,25 +3127,25 @@
       <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="6">
         <v>529.99</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="6">
+        <f t="shared" si="0"/>
+        <v>529.99</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="1"/>
-        <v>529.99</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J36" s="3">
+        <v>26.499500000000001</v>
+      </c>
+      <c r="K36" s="10">
         <f t="shared" si="2"/>
-        <v>26.499500000000001</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="3"/>
         <v>503.4905</v>
       </c>
       <c r="L36" s="1">
@@ -2843,11 +3161,19 @@
         <v>66</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>585</v>
       </c>
@@ -2863,25 +3189,25 @@
       <c r="E37" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="6">
         <v>549.99</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="6">
+        <f t="shared" si="0"/>
+        <v>1099.98</v>
+      </c>
+      <c r="I37" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="1"/>
-        <v>1099.98</v>
-      </c>
-      <c r="I37" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J37" s="3">
+        <v>38.499300000000005</v>
+      </c>
+      <c r="K37" s="10">
         <f t="shared" si="2"/>
-        <v>38.499300000000005</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="3"/>
         <v>1022.9814</v>
       </c>
       <c r="L37" s="1">
@@ -2897,11 +3223,19 @@
         <v>66</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>586</v>
       </c>
@@ -2917,25 +3251,25 @@
       <c r="E38" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="6">
         <v>1680.99</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="6">
+        <f t="shared" si="0"/>
+        <v>3361.98</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="1"/>
-        <v>3361.98</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J38" s="3">
+        <v>168.09900000000002</v>
+      </c>
+      <c r="K38" s="10">
         <f t="shared" si="2"/>
-        <v>168.09900000000002</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="3"/>
         <v>3025.7820000000002</v>
       </c>
       <c r="L38" s="1">
@@ -2951,11 +3285,19 @@
         <v>69</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>586</v>
       </c>
@@ -2971,25 +3313,25 @@
       <c r="E39" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="6">
         <v>299.99</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="6">
+        <f t="shared" si="0"/>
+        <v>599.98</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J39" s="6">
         <f t="shared" si="1"/>
-        <v>599.98</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J39" s="3">
+        <v>59.998000000000005</v>
+      </c>
+      <c r="K39" s="10">
         <f t="shared" si="2"/>
-        <v>59.998000000000005</v>
-      </c>
-      <c r="K39" s="5">
-        <f t="shared" si="3"/>
         <v>479.98400000000004</v>
       </c>
       <c r="L39" s="1">
@@ -3005,11 +3347,19 @@
         <v>69</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>655</v>
       </c>
@@ -3025,25 +3375,25 @@
       <c r="E40" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="6">
         <v>250.99</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="6">
+        <f t="shared" si="0"/>
+        <v>250.99</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="6">
         <f t="shared" si="1"/>
-        <v>250.99</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J40" s="3">
+        <v>25.099000000000004</v>
+      </c>
+      <c r="K40" s="10">
         <f t="shared" si="2"/>
-        <v>25.099000000000004</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="3"/>
         <v>225.89100000000002</v>
       </c>
       <c r="L40" s="1">
@@ -3059,11 +3409,19 @@
         <v>75</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>777</v>
       </c>
@@ -3079,25 +3437,25 @@
       <c r="E41" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="6">
         <v>1320.99</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="6">
+        <f t="shared" si="0"/>
+        <v>1320.99</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J41" s="6">
         <f t="shared" si="1"/>
-        <v>1320.99</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J41" s="3">
+        <v>264.19800000000004</v>
+      </c>
+      <c r="K41" s="10">
         <f t="shared" si="2"/>
-        <v>264.19800000000004</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" si="3"/>
         <v>1056.7919999999999</v>
       </c>
       <c r="L41" s="1">
@@ -3113,11 +3471,19 @@
         <v>77</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>777</v>
       </c>
@@ -3133,25 +3499,25 @@
       <c r="E42" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="6">
         <v>3999.99</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="6">
+        <f t="shared" si="0"/>
+        <v>7999.98</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J42" s="6">
         <f t="shared" si="1"/>
-        <v>7999.98</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J42" s="3">
+        <v>799.99800000000005</v>
+      </c>
+      <c r="K42" s="10">
         <f t="shared" si="2"/>
-        <v>799.99800000000005</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="3"/>
         <v>6399.9839999999995</v>
       </c>
       <c r="L42" s="1">
@@ -3167,11 +3533,19 @@
         <v>77</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>777</v>
       </c>
@@ -3187,25 +3561,25 @@
       <c r="E43" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="6">
         <v>749.99</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="6">
+        <f t="shared" si="0"/>
+        <v>749.99</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J43" s="6">
         <f t="shared" si="1"/>
-        <v>749.99</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J43" s="3">
+        <v>149.99800000000002</v>
+      </c>
+      <c r="K43" s="10">
         <f t="shared" si="2"/>
-        <v>149.99800000000002</v>
-      </c>
-      <c r="K43" s="5">
-        <f t="shared" si="3"/>
         <v>599.99199999999996</v>
       </c>
       <c r="L43" s="1">
@@ -3221,11 +3595,19 @@
         <v>77</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>805</v>
       </c>
@@ -3241,25 +3623,25 @@
       <c r="E44" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="6">
         <v>549.99</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="6">
+        <f t="shared" si="0"/>
+        <v>549.99</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J44" s="6">
         <f t="shared" si="1"/>
-        <v>549.99</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J44" s="3">
+        <v>27.499500000000001</v>
+      </c>
+      <c r="K44" s="10">
         <f t="shared" si="2"/>
-        <v>27.499500000000001</v>
-      </c>
-      <c r="K44" s="5">
-        <f t="shared" si="3"/>
         <v>522.4905</v>
       </c>
       <c r="L44" s="1">
@@ -3275,11 +3657,19 @@
         <v>79</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>805</v>
       </c>
@@ -3295,25 +3685,25 @@
       <c r="E45" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="6">
         <v>469.99</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="6">
+        <f t="shared" si="0"/>
+        <v>939.98</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J45" s="6">
         <f t="shared" si="1"/>
-        <v>939.98</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J45" s="3">
+        <v>93.998000000000005</v>
+      </c>
+      <c r="K45" s="10">
         <f t="shared" si="2"/>
-        <v>93.998000000000005</v>
-      </c>
-      <c r="K45" s="5">
-        <f t="shared" si="3"/>
         <v>751.98400000000004</v>
       </c>
       <c r="L45" s="1">
@@ -3329,11 +3719,19 @@
         <v>79</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>805</v>
       </c>
@@ -3349,25 +3747,25 @@
       <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="6">
         <v>3499.99</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="6">
+        <f t="shared" si="0"/>
+        <v>6999.98</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J46" s="6">
         <f t="shared" si="1"/>
-        <v>6999.98</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J46" s="3">
+        <v>699.99800000000005</v>
+      </c>
+      <c r="K46" s="10">
         <f t="shared" si="2"/>
-        <v>699.99800000000005</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="3"/>
         <v>5599.9839999999995</v>
       </c>
       <c r="L46" s="1">
@@ -3383,11 +3781,19 @@
         <v>79</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>805</v>
       </c>
@@ -3403,25 +3809,25 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="6">
         <v>469.99</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="6">
+        <f t="shared" si="0"/>
+        <v>469.99</v>
+      </c>
+      <c r="I47" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J47" s="6">
         <f t="shared" si="1"/>
-        <v>469.99</v>
-      </c>
-      <c r="I47" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J47" s="3">
+        <v>32.899300000000004</v>
+      </c>
+      <c r="K47" s="10">
         <f t="shared" si="2"/>
-        <v>32.899300000000004</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="3"/>
         <v>437.09070000000003</v>
       </c>
       <c r="L47" s="1">
@@ -3437,11 +3843,19 @@
         <v>79</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>805</v>
       </c>
@@ -3457,25 +3871,25 @@
       <c r="E48" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="6">
         <v>469.99</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="6">
+        <f t="shared" si="0"/>
+        <v>939.98</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J48" s="6">
         <f t="shared" si="1"/>
-        <v>939.98</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J48" s="3">
+        <v>23.499500000000001</v>
+      </c>
+      <c r="K48" s="10">
         <f t="shared" si="2"/>
-        <v>23.499500000000001</v>
-      </c>
-      <c r="K48" s="5">
-        <f t="shared" si="3"/>
         <v>892.98099999999999</v>
       </c>
       <c r="L48" s="1">
@@ -3491,11 +3905,19 @@
         <v>79</v>
       </c>
       <c r="P48" t="str">
-        <f>IF(YEAR(L48) &gt; D48, "YES", "NO")</f>
+        <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>820</v>
       </c>
@@ -3511,25 +3933,25 @@
       <c r="E49" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="6">
         <v>416.99</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="6">
+        <f t="shared" si="0"/>
+        <v>416.99</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J49" s="6">
         <f t="shared" si="1"/>
-        <v>416.99</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J49" s="3">
+        <v>20.849500000000003</v>
+      </c>
+      <c r="K49" s="10">
         <f t="shared" si="2"/>
-        <v>20.849500000000003</v>
-      </c>
-      <c r="K49" s="5">
-        <f t="shared" si="3"/>
         <v>396.14050000000003</v>
       </c>
       <c r="L49" s="1">
@@ -3545,11 +3967,19 @@
         <v>86</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" ref="P49:P100" si="4">IF(YEAR(L49) &gt; D49, "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>822</v>
       </c>
@@ -3565,25 +3995,25 @@
       <c r="E50" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="6">
         <v>749.99</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="6">
+        <f t="shared" si="0"/>
+        <v>749.99</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J50" s="6">
         <f t="shared" si="1"/>
-        <v>749.99</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J50" s="3">
+        <v>37.499500000000005</v>
+      </c>
+      <c r="K50" s="10">
         <f t="shared" si="2"/>
-        <v>37.499500000000005</v>
-      </c>
-      <c r="K50" s="5">
-        <f t="shared" si="3"/>
         <v>712.4905</v>
       </c>
       <c r="L50" s="1">
@@ -3599,11 +4029,19 @@
         <v>89</v>
       </c>
       <c r="P50" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>822</v>
       </c>
@@ -3619,25 +4057,25 @@
       <c r="E51" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="6">
         <v>619.99</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="6">
+        <f t="shared" si="0"/>
+        <v>619.99</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J51" s="6">
         <f t="shared" si="1"/>
-        <v>619.99</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J51" s="3">
+        <v>123.998</v>
+      </c>
+      <c r="K51" s="10">
         <f t="shared" si="2"/>
-        <v>123.998</v>
-      </c>
-      <c r="K51" s="5">
-        <f t="shared" si="3"/>
         <v>495.99200000000002</v>
       </c>
       <c r="L51" s="1">
@@ -3653,11 +4091,19 @@
         <v>89</v>
       </c>
       <c r="P51" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>964</v>
       </c>
@@ -3673,25 +4119,25 @@
       <c r="E52" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="6">
         <v>209.99</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="6">
+        <f t="shared" si="0"/>
+        <v>209.99</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J52" s="6">
         <f t="shared" si="1"/>
-        <v>209.99</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J52" s="3">
+        <v>41.998000000000005</v>
+      </c>
+      <c r="K52" s="10">
         <f t="shared" si="2"/>
-        <v>41.998000000000005</v>
-      </c>
-      <c r="K52" s="5">
-        <f t="shared" si="3"/>
         <v>167.99200000000002</v>
       </c>
       <c r="L52" s="1">
@@ -3707,11 +4153,19 @@
         <v>93</v>
       </c>
       <c r="P52" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q52">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>964</v>
       </c>
@@ -3727,25 +4181,25 @@
       <c r="E53" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="6">
         <v>439.99</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="6">
+        <f t="shared" si="0"/>
+        <v>439.99</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J53" s="6">
         <f t="shared" si="1"/>
-        <v>439.99</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J53" s="3">
+        <v>87.998000000000005</v>
+      </c>
+      <c r="K53" s="10">
         <f t="shared" si="2"/>
-        <v>87.998000000000005</v>
-      </c>
-      <c r="K53" s="5">
-        <f t="shared" si="3"/>
         <v>351.99200000000002</v>
       </c>
       <c r="L53" s="1">
@@ -3761,11 +4215,19 @@
         <v>93</v>
       </c>
       <c r="P53" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>988</v>
       </c>
@@ -3781,25 +4243,25 @@
       <c r="E54" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="6">
         <v>832.99</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="6">
+        <f t="shared" si="0"/>
+        <v>832.99</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J54" s="6">
         <f t="shared" si="1"/>
-        <v>832.99</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J54" s="3">
+        <v>166.59800000000001</v>
+      </c>
+      <c r="K54" s="10">
         <f t="shared" si="2"/>
-        <v>166.59800000000001</v>
-      </c>
-      <c r="K54" s="5">
-        <f t="shared" si="3"/>
         <v>666.39200000000005</v>
       </c>
       <c r="L54" s="1">
@@ -3815,11 +4277,19 @@
         <v>97</v>
       </c>
       <c r="P54" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>988</v>
       </c>
@@ -3835,25 +4305,25 @@
       <c r="E55" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="6">
         <v>549.99</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="6">
+        <f t="shared" si="0"/>
+        <v>549.99</v>
+      </c>
+      <c r="I55" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J55" s="6">
         <f t="shared" si="1"/>
-        <v>549.99</v>
-      </c>
-      <c r="I55" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J55" s="3">
+        <v>38.499300000000005</v>
+      </c>
+      <c r="K55" s="10">
         <f t="shared" si="2"/>
-        <v>38.499300000000005</v>
-      </c>
-      <c r="K55" s="5">
-        <f t="shared" si="3"/>
         <v>511.4907</v>
       </c>
       <c r="L55" s="1">
@@ -3869,11 +4339,19 @@
         <v>97</v>
       </c>
       <c r="P55" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>988</v>
       </c>
@@ -3889,25 +4367,25 @@
       <c r="E56" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="6">
         <v>549.99</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="6">
+        <f t="shared" si="0"/>
+        <v>1099.98</v>
+      </c>
+      <c r="I56" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J56" s="6">
         <f t="shared" si="1"/>
-        <v>1099.98</v>
-      </c>
-      <c r="I56" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J56" s="3">
+        <v>38.499300000000005</v>
+      </c>
+      <c r="K56" s="10">
         <f t="shared" si="2"/>
-        <v>38.499300000000005</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" si="3"/>
         <v>1022.9814</v>
       </c>
       <c r="L56" s="1">
@@ -3923,11 +4401,19 @@
         <v>97</v>
       </c>
       <c r="P56" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>991</v>
       </c>
@@ -3943,25 +4429,25 @@
       <c r="E57" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="6">
         <v>2999.99</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="6">
+        <f t="shared" si="0"/>
+        <v>5999.98</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J57" s="6">
         <f t="shared" si="1"/>
-        <v>5999.98</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J57" s="3">
+        <v>599.99799999999993</v>
+      </c>
+      <c r="K57" s="10">
         <f t="shared" si="2"/>
-        <v>599.99799999999993</v>
-      </c>
-      <c r="K57" s="5">
-        <f t="shared" si="3"/>
         <v>4799.9839999999995</v>
       </c>
       <c r="L57" s="1">
@@ -3977,11 +4463,19 @@
         <v>101</v>
       </c>
       <c r="P57" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>991</v>
       </c>
@@ -3997,25 +4491,25 @@
       <c r="E58" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="6">
         <v>402.99</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="6">
+        <f t="shared" si="0"/>
+        <v>402.99</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J58" s="6">
         <f t="shared" si="1"/>
-        <v>402.99</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J58" s="3">
+        <v>80.598000000000013</v>
+      </c>
+      <c r="K58" s="10">
         <f t="shared" si="2"/>
-        <v>80.598000000000013</v>
-      </c>
-      <c r="K58" s="5">
-        <f t="shared" si="3"/>
         <v>322.392</v>
       </c>
       <c r="L58" s="1">
@@ -4031,11 +4525,19 @@
         <v>101</v>
       </c>
       <c r="P58" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>991</v>
       </c>
@@ -4051,25 +4553,25 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="6">
         <v>469.99</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="6">
+        <f t="shared" si="0"/>
+        <v>469.99</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="6">
         <f t="shared" si="1"/>
-        <v>469.99</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J59" s="3">
+        <v>93.998000000000005</v>
+      </c>
+      <c r="K59" s="10">
         <f t="shared" si="2"/>
-        <v>93.998000000000005</v>
-      </c>
-      <c r="K59" s="5">
-        <f t="shared" si="3"/>
         <v>375.99200000000002</v>
       </c>
       <c r="L59" s="1">
@@ -4085,11 +4587,19 @@
         <v>101</v>
       </c>
       <c r="P59" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>994</v>
       </c>
@@ -4105,25 +4615,25 @@
       <c r="E60" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="6">
         <v>379.99</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="6">
+        <f t="shared" si="0"/>
+        <v>759.98</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J60" s="6">
         <f t="shared" si="1"/>
-        <v>759.98</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J60" s="3">
+        <v>37.999000000000002</v>
+      </c>
+      <c r="K60" s="10">
         <f t="shared" si="2"/>
-        <v>37.999000000000002</v>
-      </c>
-      <c r="K60" s="5">
-        <f t="shared" si="3"/>
         <v>683.98199999999997</v>
       </c>
       <c r="L60" s="1">
@@ -4139,11 +4649,19 @@
         <v>106</v>
       </c>
       <c r="P60" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>994</v>
       </c>
@@ -4159,25 +4677,25 @@
       <c r="E61" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="6">
         <v>869.99</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="6">
+        <f t="shared" si="0"/>
+        <v>869.99</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J61" s="6">
         <f t="shared" si="1"/>
-        <v>869.99</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J61" s="3">
+        <v>173.99800000000002</v>
+      </c>
+      <c r="K61" s="10">
         <f t="shared" si="2"/>
-        <v>173.99800000000002</v>
-      </c>
-      <c r="K61" s="5">
-        <f t="shared" si="3"/>
         <v>695.99199999999996</v>
       </c>
       <c r="L61" s="1">
@@ -4193,11 +4711,19 @@
         <v>106</v>
       </c>
       <c r="P61" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>994</v>
       </c>
@@ -4213,25 +4739,25 @@
       <c r="E62" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="6">
         <v>250.99</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="6">
+        <f t="shared" si="0"/>
+        <v>250.99</v>
+      </c>
+      <c r="I62" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J62" s="6">
         <f t="shared" si="1"/>
-        <v>250.99</v>
-      </c>
-      <c r="I62" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J62" s="3">
+        <v>17.569300000000002</v>
+      </c>
+      <c r="K62" s="10">
         <f t="shared" si="2"/>
-        <v>17.569300000000002</v>
-      </c>
-      <c r="K62" s="5">
-        <f t="shared" si="3"/>
         <v>233.42070000000001</v>
       </c>
       <c r="L62" s="1">
@@ -4247,11 +4773,19 @@
         <v>106</v>
       </c>
       <c r="P62" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1003</v>
       </c>
@@ -4267,25 +4801,25 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="6">
         <v>469.99</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="6">
+        <f t="shared" si="0"/>
+        <v>939.98</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J63" s="6">
         <f t="shared" si="1"/>
-        <v>939.98</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J63" s="3">
+        <v>23.499500000000001</v>
+      </c>
+      <c r="K63" s="10">
         <f t="shared" si="2"/>
-        <v>23.499500000000001</v>
-      </c>
-      <c r="K63" s="5">
-        <f t="shared" si="3"/>
         <v>892.98099999999999</v>
       </c>
       <c r="L63" s="1">
@@ -4301,11 +4835,19 @@
         <v>110</v>
       </c>
       <c r="P63" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q63">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1003</v>
       </c>
@@ -4321,25 +4863,25 @@
       <c r="E64" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="6">
         <v>6499.99</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="6">
+        <f t="shared" si="0"/>
+        <v>12999.98</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J64" s="6">
         <f t="shared" si="1"/>
-        <v>12999.98</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J64" s="3">
+        <v>324.99950000000001</v>
+      </c>
+      <c r="K64" s="10">
         <f t="shared" si="2"/>
-        <v>324.99950000000001</v>
-      </c>
-      <c r="K64" s="5">
-        <f t="shared" si="3"/>
         <v>12349.981</v>
       </c>
       <c r="L64" s="1">
@@ -4355,11 +4897,19 @@
         <v>110</v>
       </c>
       <c r="P64" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q64">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1023</v>
       </c>
@@ -4375,25 +4925,25 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="6">
         <v>349.99</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="6">
+        <f t="shared" si="0"/>
+        <v>349.99</v>
+      </c>
+      <c r="I65" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J65" s="6">
         <f t="shared" si="1"/>
-        <v>349.99</v>
-      </c>
-      <c r="I65" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J65" s="3">
+        <v>24.499300000000002</v>
+      </c>
+      <c r="K65" s="10">
         <f t="shared" si="2"/>
-        <v>24.499300000000002</v>
-      </c>
-      <c r="K65" s="5">
-        <f t="shared" si="3"/>
         <v>325.4907</v>
       </c>
       <c r="L65" s="1">
@@ -4409,11 +4959,19 @@
         <v>114</v>
       </c>
       <c r="P65" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q65">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1023</v>
       </c>
@@ -4429,25 +4987,25 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="6">
         <v>5299.99</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="6">
+        <f t="shared" si="0"/>
+        <v>10599.98</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J66" s="6">
         <f t="shared" si="1"/>
-        <v>10599.98</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J66" s="3">
+        <v>529.99900000000002</v>
+      </c>
+      <c r="K66" s="10">
         <f t="shared" si="2"/>
-        <v>529.99900000000002</v>
-      </c>
-      <c r="K66" s="5">
-        <f t="shared" si="3"/>
         <v>9539.982</v>
       </c>
       <c r="L66" s="1">
@@ -4463,11 +5021,19 @@
         <v>114</v>
       </c>
       <c r="P66" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Q66">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1047</v>
       </c>
@@ -4483,25 +5049,25 @@
       <c r="E67" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="6">
         <v>2499.9899999999998</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
-      <c r="H67" s="3">
-        <f t="shared" ref="H67:H100" si="5">F67*G67</f>
+      <c r="H67" s="6">
+        <f t="shared" ref="H67:H100" si="6">F67*G67</f>
         <v>4999.9799999999996</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="8">
         <v>0.1</v>
       </c>
-      <c r="J67" s="3">
-        <f t="shared" ref="J67:J100" si="6">F67*I67</f>
+      <c r="J67" s="6">
+        <f t="shared" ref="J67:J100" si="7">F67*I67</f>
         <v>249.999</v>
       </c>
-      <c r="K67" s="5">
-        <f t="shared" ref="K67:K100" si="7">H67-G67*J67</f>
+      <c r="K67" s="10">
+        <f t="shared" ref="K67:K100" si="8">H67-J67*G67</f>
         <v>4499.982</v>
       </c>
       <c r="L67" s="1">
@@ -4517,11 +5083,19 @@
         <v>119</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P67:P100" si="9">IF(YEAR(L67) &gt; D67, "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q100" si="10">YEAR(L67)</f>
+        <v>2017</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R100" si="11">MONTH(L67)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1047</v>
       </c>
@@ -4537,25 +5111,25 @@
       <c r="E68" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="6">
         <v>647.99</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="H68" s="3">
-        <f t="shared" si="5"/>
+      <c r="H68" s="6">
+        <f t="shared" si="6"/>
         <v>647.99</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="8">
         <v>0.2</v>
       </c>
-      <c r="J68" s="3">
-        <f t="shared" si="6"/>
+      <c r="J68" s="6">
+        <f t="shared" si="7"/>
         <v>129.59800000000001</v>
       </c>
-      <c r="K68" s="5">
-        <f t="shared" si="7"/>
+      <c r="K68" s="10">
+        <f t="shared" si="8"/>
         <v>518.39200000000005</v>
       </c>
       <c r="L68" s="1">
@@ -4571,11 +5145,19 @@
         <v>119</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1047</v>
       </c>
@@ -4591,25 +5173,25 @@
       <c r="E69" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="6">
         <v>832.99</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="H69" s="3">
-        <f t="shared" si="5"/>
+      <c r="H69" s="6">
+        <f t="shared" si="6"/>
         <v>832.99</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="8">
         <v>0.05</v>
       </c>
-      <c r="J69" s="3">
-        <f t="shared" si="6"/>
+      <c r="J69" s="6">
+        <f t="shared" si="7"/>
         <v>41.649500000000003</v>
       </c>
-      <c r="K69" s="5">
-        <f t="shared" si="7"/>
+      <c r="K69" s="10">
+        <f t="shared" si="8"/>
         <v>791.34050000000002</v>
       </c>
       <c r="L69" s="1">
@@ -4625,11 +5207,19 @@
         <v>119</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1047</v>
       </c>
@@ -4645,25 +5235,25 @@
       <c r="E70" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="6">
         <v>3499.99</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="H70" s="3">
-        <f t="shared" si="5"/>
+      <c r="H70" s="6">
+        <f t="shared" si="6"/>
         <v>3499.99</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="8">
         <v>0.05</v>
       </c>
-      <c r="J70" s="3">
-        <f t="shared" si="6"/>
+      <c r="J70" s="6">
+        <f t="shared" si="7"/>
         <v>174.99950000000001</v>
       </c>
-      <c r="K70" s="5">
-        <f t="shared" si="7"/>
+      <c r="K70" s="10">
+        <f t="shared" si="8"/>
         <v>3324.9904999999999</v>
       </c>
       <c r="L70" s="1">
@@ -4679,11 +5269,19 @@
         <v>119</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1055</v>
       </c>
@@ -4699,25 +5297,25 @@
       <c r="E71" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="6">
         <v>5299.99</v>
       </c>
       <c r="G71">
         <v>2</v>
       </c>
-      <c r="H71" s="3">
-        <f t="shared" si="5"/>
+      <c r="H71" s="6">
+        <f t="shared" si="6"/>
         <v>10599.98</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J71" s="3">
-        <f t="shared" si="6"/>
+      <c r="J71" s="6">
+        <f t="shared" si="7"/>
         <v>370.99930000000001</v>
       </c>
-      <c r="K71" s="5">
-        <f t="shared" si="7"/>
+      <c r="K71" s="10">
+        <f t="shared" si="8"/>
         <v>9857.9813999999988</v>
       </c>
       <c r="L71" s="1">
@@ -4733,11 +5331,19 @@
         <v>123</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1055</v>
       </c>
@@ -4753,25 +5359,25 @@
       <c r="E72" t="s">
         <v>35</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="6">
         <v>339.99</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
-      <c r="H72" s="3">
-        <f t="shared" si="5"/>
+      <c r="H72" s="6">
+        <f t="shared" si="6"/>
         <v>679.98</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="8">
         <v>0.2</v>
       </c>
-      <c r="J72" s="3">
-        <f t="shared" si="6"/>
+      <c r="J72" s="6">
+        <f t="shared" si="7"/>
         <v>67.998000000000005</v>
       </c>
-      <c r="K72" s="5">
-        <f t="shared" si="7"/>
+      <c r="K72" s="10">
+        <f t="shared" si="8"/>
         <v>543.98400000000004</v>
       </c>
       <c r="L72" s="1">
@@ -4787,11 +5393,19 @@
         <v>123</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1055</v>
       </c>
@@ -4807,25 +5421,25 @@
       <c r="E73" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="6">
         <v>549.99</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
-      <c r="H73" s="3">
-        <f t="shared" si="5"/>
+      <c r="H73" s="6">
+        <f t="shared" si="6"/>
         <v>1099.98</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="8">
         <v>0.1</v>
       </c>
-      <c r="J73" s="3">
-        <f t="shared" si="6"/>
+      <c r="J73" s="6">
+        <f t="shared" si="7"/>
         <v>54.999000000000002</v>
       </c>
-      <c r="K73" s="5">
-        <f t="shared" si="7"/>
+      <c r="K73" s="10">
+        <f t="shared" si="8"/>
         <v>989.98199999999997</v>
       </c>
       <c r="L73" s="1">
@@ -4841,11 +5455,19 @@
         <v>123</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1055</v>
       </c>
@@ -4861,25 +5483,25 @@
       <c r="E74" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="6">
         <v>149.99</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
-      <c r="H74" s="3">
-        <f t="shared" si="5"/>
+      <c r="H74" s="6">
+        <f t="shared" si="6"/>
         <v>299.98</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="8">
         <v>0.1</v>
       </c>
-      <c r="J74" s="3">
-        <f t="shared" si="6"/>
+      <c r="J74" s="6">
+        <f t="shared" si="7"/>
         <v>14.999000000000002</v>
       </c>
-      <c r="K74" s="5">
-        <f t="shared" si="7"/>
+      <c r="K74" s="10">
+        <f t="shared" si="8"/>
         <v>269.98200000000003</v>
       </c>
       <c r="L74" s="1">
@@ -4895,11 +5517,19 @@
         <v>123</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1055</v>
       </c>
@@ -4915,25 +5545,25 @@
       <c r="E75" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="6">
         <v>1559.99</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="H75" s="3">
-        <f t="shared" si="5"/>
+      <c r="H75" s="6">
+        <f t="shared" si="6"/>
         <v>1559.99</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="8">
         <v>0.2</v>
       </c>
-      <c r="J75" s="3">
-        <f t="shared" si="6"/>
+      <c r="J75" s="6">
+        <f t="shared" si="7"/>
         <v>311.99800000000005</v>
       </c>
-      <c r="K75" s="5">
-        <f t="shared" si="7"/>
+      <c r="K75" s="10">
+        <f t="shared" si="8"/>
         <v>1247.992</v>
       </c>
       <c r="L75" s="1">
@@ -4949,11 +5579,19 @@
         <v>123</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1105</v>
       </c>
@@ -4969,25 +5607,25 @@
       <c r="E76" t="s">
         <v>72</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="6">
         <v>1559.99</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" s="3">
-        <f t="shared" si="5"/>
+      <c r="H76" s="6">
+        <f t="shared" si="6"/>
         <v>1559.99</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="8">
         <v>0.05</v>
       </c>
-      <c r="J76" s="3">
-        <f t="shared" si="6"/>
+      <c r="J76" s="6">
+        <f t="shared" si="7"/>
         <v>77.999500000000012</v>
       </c>
-      <c r="K76" s="5">
-        <f t="shared" si="7"/>
+      <c r="K76" s="10">
+        <f t="shared" si="8"/>
         <v>1481.9904999999999</v>
       </c>
       <c r="L76" s="1">
@@ -5003,11 +5641,19 @@
         <v>128</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1105</v>
       </c>
@@ -5023,25 +5669,25 @@
       <c r="E77" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="6">
         <v>5499.99</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
-      <c r="H77" s="3">
-        <f t="shared" si="5"/>
+      <c r="H77" s="6">
+        <f t="shared" si="6"/>
         <v>10999.98</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="8">
         <v>0.2</v>
       </c>
-      <c r="J77" s="3">
-        <f t="shared" si="6"/>
+      <c r="J77" s="6">
+        <f t="shared" si="7"/>
         <v>1099.998</v>
       </c>
-      <c r="K77" s="5">
-        <f t="shared" si="7"/>
+      <c r="K77" s="10">
+        <f t="shared" si="8"/>
         <v>8799.9840000000004</v>
       </c>
       <c r="L77" s="1">
@@ -5057,11 +5703,19 @@
         <v>128</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1105</v>
       </c>
@@ -5077,25 +5731,25 @@
       <c r="E78" t="s">
         <v>72</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="6">
         <v>832.99</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
-      <c r="H78" s="3">
-        <f t="shared" si="5"/>
+      <c r="H78" s="6">
+        <f t="shared" si="6"/>
         <v>1665.98</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J78" s="3">
-        <f t="shared" si="6"/>
+      <c r="J78" s="6">
+        <f t="shared" si="7"/>
         <v>58.309300000000007</v>
       </c>
-      <c r="K78" s="5">
-        <f t="shared" si="7"/>
+      <c r="K78" s="10">
+        <f t="shared" si="8"/>
         <v>1549.3614</v>
       </c>
       <c r="L78" s="1">
@@ -5111,11 +5765,19 @@
         <v>128</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1117</v>
       </c>
@@ -5131,25 +5793,25 @@
       <c r="E79" t="s">
         <v>99</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="6">
         <v>379.99</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
-      <c r="H79" s="3">
-        <f t="shared" si="5"/>
+      <c r="H79" s="6">
+        <f t="shared" si="6"/>
         <v>759.98</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="8">
         <v>0.1</v>
       </c>
-      <c r="J79" s="3">
-        <f t="shared" si="6"/>
+      <c r="J79" s="6">
+        <f t="shared" si="7"/>
         <v>37.999000000000002</v>
       </c>
-      <c r="K79" s="5">
-        <f t="shared" si="7"/>
+      <c r="K79" s="10">
+        <f t="shared" si="8"/>
         <v>683.98199999999997</v>
       </c>
       <c r="L79" s="1">
@@ -5165,11 +5827,19 @@
         <v>131</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1117</v>
       </c>
@@ -5185,25 +5855,25 @@
       <c r="E80" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="6">
         <v>349.99</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="H80" s="3">
-        <f t="shared" si="5"/>
+      <c r="H80" s="6">
+        <f t="shared" si="6"/>
         <v>349.99</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="8">
         <v>0.2</v>
       </c>
-      <c r="J80" s="3">
-        <f t="shared" si="6"/>
+      <c r="J80" s="6">
+        <f t="shared" si="7"/>
         <v>69.998000000000005</v>
       </c>
-      <c r="K80" s="5">
-        <f t="shared" si="7"/>
+      <c r="K80" s="10">
+        <f t="shared" si="8"/>
         <v>279.99200000000002</v>
       </c>
       <c r="L80" s="1">
@@ -5219,11 +5889,19 @@
         <v>131</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1117</v>
       </c>
@@ -5239,25 +5917,25 @@
       <c r="E81" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="6">
         <v>6499.99</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
-      <c r="H81" s="3">
-        <f t="shared" si="5"/>
+      <c r="H81" s="6">
+        <f t="shared" si="6"/>
         <v>12999.98</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="8">
         <v>0.1</v>
       </c>
-      <c r="J81" s="3">
-        <f t="shared" si="6"/>
+      <c r="J81" s="6">
+        <f t="shared" si="7"/>
         <v>649.99900000000002</v>
       </c>
-      <c r="K81" s="5">
-        <f t="shared" si="7"/>
+      <c r="K81" s="10">
+        <f t="shared" si="8"/>
         <v>11699.982</v>
       </c>
       <c r="L81" s="1">
@@ -5273,11 +5951,19 @@
         <v>131</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1157</v>
       </c>
@@ -5293,25 +5979,25 @@
       <c r="E82" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="6">
         <v>599.99</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
-      <c r="H82" s="3">
-        <f t="shared" si="5"/>
+      <c r="H82" s="6">
+        <f t="shared" si="6"/>
         <v>599.99</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="8">
         <v>0.1</v>
       </c>
-      <c r="J82" s="3">
-        <f t="shared" si="6"/>
+      <c r="J82" s="6">
+        <f t="shared" si="7"/>
         <v>59.999000000000002</v>
       </c>
-      <c r="K82" s="5">
-        <f t="shared" si="7"/>
+      <c r="K82" s="10">
+        <f t="shared" si="8"/>
         <v>539.99099999999999</v>
       </c>
       <c r="L82" s="1">
@@ -5327,11 +6013,19 @@
         <v>134</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1157</v>
       </c>
@@ -5347,25 +6041,25 @@
       <c r="E83" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="6">
         <v>1632.99</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
-      <c r="H83" s="3">
-        <f t="shared" si="5"/>
+      <c r="H83" s="6">
+        <f t="shared" si="6"/>
         <v>3265.98</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="8">
         <v>0.1</v>
       </c>
-      <c r="J83" s="3">
-        <f t="shared" si="6"/>
+      <c r="J83" s="6">
+        <f t="shared" si="7"/>
         <v>163.29900000000001</v>
       </c>
-      <c r="K83" s="5">
-        <f t="shared" si="7"/>
+      <c r="K83" s="10">
+        <f t="shared" si="8"/>
         <v>2939.3820000000001</v>
       </c>
       <c r="L83" s="1">
@@ -5381,11 +6075,19 @@
         <v>134</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1157</v>
       </c>
@@ -5401,25 +6103,25 @@
       <c r="E84" t="s">
         <v>99</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="6">
         <v>379.99</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
-      <c r="H84" s="3">
-        <f t="shared" si="5"/>
+      <c r="H84" s="6">
+        <f t="shared" si="6"/>
         <v>759.98</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="8">
         <v>0.2</v>
       </c>
-      <c r="J84" s="3">
-        <f t="shared" si="6"/>
+      <c r="J84" s="6">
+        <f t="shared" si="7"/>
         <v>75.998000000000005</v>
       </c>
-      <c r="K84" s="5">
-        <f t="shared" si="7"/>
+      <c r="K84" s="10">
+        <f t="shared" si="8"/>
         <v>607.98400000000004</v>
       </c>
       <c r="L84" s="1">
@@ -5435,11 +6137,19 @@
         <v>134</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1157</v>
       </c>
@@ -5455,25 +6165,25 @@
       <c r="E85" t="s">
         <v>99</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="6">
         <v>1469.99</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="H85" s="3">
-        <f t="shared" si="5"/>
+      <c r="H85" s="6">
+        <f t="shared" si="6"/>
         <v>1469.99</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J85" s="3">
-        <f t="shared" si="6"/>
+      <c r="J85" s="6">
+        <f t="shared" si="7"/>
         <v>102.89930000000001</v>
       </c>
-      <c r="K85" s="5">
-        <f t="shared" si="7"/>
+      <c r="K85" s="10">
+        <f t="shared" si="8"/>
         <v>1367.0907</v>
       </c>
       <c r="L85" s="1">
@@ -5489,11 +6199,19 @@
         <v>134</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1296</v>
       </c>
@@ -5509,25 +6227,25 @@
       <c r="E86" t="s">
         <v>35</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="6">
         <v>499.99</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
-      <c r="H86" s="3">
-        <f t="shared" si="5"/>
+      <c r="H86" s="6">
+        <f t="shared" si="6"/>
         <v>999.98</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="8">
         <v>0.05</v>
       </c>
-      <c r="J86" s="3">
-        <f t="shared" si="6"/>
+      <c r="J86" s="6">
+        <f t="shared" si="7"/>
         <v>24.999500000000001</v>
       </c>
-      <c r="K86" s="5">
-        <f t="shared" si="7"/>
+      <c r="K86" s="10">
+        <f t="shared" si="8"/>
         <v>949.98099999999999</v>
       </c>
       <c r="L86" s="1">
@@ -5543,11 +6261,19 @@
         <v>139</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1296</v>
       </c>
@@ -5563,25 +6289,25 @@
       <c r="E87" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="6">
         <v>209.99</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="H87" s="3">
-        <f t="shared" si="5"/>
+      <c r="H87" s="6">
+        <f t="shared" si="6"/>
         <v>209.99</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="8">
         <v>0.1</v>
       </c>
-      <c r="J87" s="3">
-        <f t="shared" si="6"/>
+      <c r="J87" s="6">
+        <f t="shared" si="7"/>
         <v>20.999000000000002</v>
       </c>
-      <c r="K87" s="5">
-        <f t="shared" si="7"/>
+      <c r="K87" s="10">
+        <f t="shared" si="8"/>
         <v>188.99100000000001</v>
       </c>
       <c r="L87" s="1">
@@ -5597,11 +6323,19 @@
         <v>139</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1296</v>
       </c>
@@ -5617,25 +6351,25 @@
       <c r="E88" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="6">
         <v>599.99</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="H88" s="3">
-        <f t="shared" si="5"/>
+      <c r="H88" s="6">
+        <f t="shared" si="6"/>
         <v>599.99</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="8">
         <v>0.05</v>
       </c>
-      <c r="J88" s="3">
-        <f t="shared" si="6"/>
+      <c r="J88" s="6">
+        <f t="shared" si="7"/>
         <v>29.999500000000001</v>
       </c>
-      <c r="K88" s="5">
-        <f t="shared" si="7"/>
+      <c r="K88" s="10">
+        <f t="shared" si="8"/>
         <v>569.9905</v>
       </c>
       <c r="L88" s="1">
@@ -5651,11 +6385,19 @@
         <v>139</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1296</v>
       </c>
@@ -5671,25 +6413,25 @@
       <c r="E89" t="s">
         <v>54</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="6">
         <v>749.99</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
-      <c r="H89" s="3">
-        <f t="shared" si="5"/>
+      <c r="H89" s="6">
+        <f t="shared" si="6"/>
         <v>1499.98</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="8">
         <v>0.1</v>
       </c>
-      <c r="J89" s="3">
-        <f t="shared" si="6"/>
+      <c r="J89" s="6">
+        <f t="shared" si="7"/>
         <v>74.999000000000009</v>
       </c>
-      <c r="K89" s="5">
-        <f t="shared" si="7"/>
+      <c r="K89" s="10">
+        <f t="shared" si="8"/>
         <v>1349.982</v>
       </c>
       <c r="L89" s="1">
@@ -5705,11 +6447,19 @@
         <v>139</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1355</v>
       </c>
@@ -5725,25 +6475,25 @@
       <c r="E90" t="s">
         <v>35</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="6">
         <v>279.99</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="H90" s="3">
-        <f t="shared" si="5"/>
+      <c r="H90" s="6">
+        <f t="shared" si="6"/>
         <v>279.99</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="8">
         <v>0.1</v>
       </c>
-      <c r="J90" s="3">
-        <f t="shared" si="6"/>
+      <c r="J90" s="6">
+        <f t="shared" si="7"/>
         <v>27.999000000000002</v>
       </c>
-      <c r="K90" s="5">
-        <f t="shared" si="7"/>
+      <c r="K90" s="10">
+        <f t="shared" si="8"/>
         <v>251.99100000000001</v>
       </c>
       <c r="L90" s="1">
@@ -5759,11 +6509,19 @@
         <v>142</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1355</v>
       </c>
@@ -5779,25 +6537,25 @@
       <c r="E91" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="6">
         <v>2599.9899999999998</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
-      <c r="H91" s="3">
-        <f t="shared" si="5"/>
+      <c r="H91" s="6">
+        <f t="shared" si="6"/>
         <v>2599.9899999999998</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J91" s="3">
-        <f t="shared" si="6"/>
+      <c r="J91" s="6">
+        <f t="shared" si="7"/>
         <v>181.99930000000001</v>
       </c>
-      <c r="K91" s="5">
-        <f t="shared" si="7"/>
+      <c r="K91" s="10">
+        <f t="shared" si="8"/>
         <v>2417.9906999999998</v>
       </c>
       <c r="L91" s="1">
@@ -5813,11 +6571,19 @@
         <v>142</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1355</v>
       </c>
@@ -5833,25 +6599,25 @@
       <c r="E92" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="6">
         <v>7499.99</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="H92" s="3">
-        <f t="shared" si="5"/>
+      <c r="H92" s="6">
+        <f t="shared" si="6"/>
         <v>7499.99</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="8">
         <v>0.2</v>
       </c>
-      <c r="J92" s="3">
-        <f t="shared" si="6"/>
+      <c r="J92" s="6">
+        <f t="shared" si="7"/>
         <v>1499.998</v>
       </c>
-      <c r="K92" s="5">
-        <f t="shared" si="7"/>
+      <c r="K92" s="10">
+        <f t="shared" si="8"/>
         <v>5999.9920000000002</v>
       </c>
       <c r="L92" s="1">
@@ -5867,11 +6633,19 @@
         <v>142</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1355</v>
       </c>
@@ -5887,25 +6661,25 @@
       <c r="E93" t="s">
         <v>35</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="6">
         <v>449.99</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
-      <c r="H93" s="3">
-        <f t="shared" si="5"/>
+      <c r="H93" s="6">
+        <f t="shared" si="6"/>
         <v>899.98</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="8">
         <v>0.1</v>
       </c>
-      <c r="J93" s="3">
-        <f t="shared" si="6"/>
+      <c r="J93" s="6">
+        <f t="shared" si="7"/>
         <v>44.999000000000002</v>
       </c>
-      <c r="K93" s="5">
-        <f t="shared" si="7"/>
+      <c r="K93" s="10">
+        <f t="shared" si="8"/>
         <v>809.98199999999997</v>
       </c>
       <c r="L93" s="1">
@@ -5921,11 +6695,19 @@
         <v>142</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1464</v>
       </c>
@@ -5941,25 +6723,25 @@
       <c r="E94" t="s">
         <v>72</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="6">
         <v>416.99</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
-      <c r="H94" s="3">
-        <f t="shared" si="5"/>
+      <c r="H94" s="6">
+        <f t="shared" si="6"/>
         <v>833.98</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="8">
         <v>0.05</v>
       </c>
-      <c r="J94" s="3">
-        <f t="shared" si="6"/>
+      <c r="J94" s="6">
+        <f t="shared" si="7"/>
         <v>20.849500000000003</v>
       </c>
-      <c r="K94" s="5">
-        <f t="shared" si="7"/>
+      <c r="K94" s="10">
+        <f t="shared" si="8"/>
         <v>792.28100000000006</v>
       </c>
       <c r="L94" s="1">
@@ -5975,11 +6757,19 @@
         <v>148</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1464</v>
       </c>
@@ -5995,25 +6785,25 @@
       <c r="E95" t="s">
         <v>22</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="6">
         <v>1499</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
-      <c r="H95" s="3">
-        <f t="shared" si="5"/>
+      <c r="H95" s="6">
+        <f t="shared" si="6"/>
         <v>1499</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="8">
         <v>0.2</v>
       </c>
-      <c r="J95" s="3">
-        <f t="shared" si="6"/>
+      <c r="J95" s="6">
+        <f t="shared" si="7"/>
         <v>299.8</v>
       </c>
-      <c r="K95" s="5">
-        <f t="shared" si="7"/>
+      <c r="K95" s="10">
+        <f t="shared" si="8"/>
         <v>1199.2</v>
       </c>
       <c r="L95" s="1">
@@ -6029,11 +6819,19 @@
         <v>148</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1464</v>
       </c>
@@ -6049,25 +6847,25 @@
       <c r="E96" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="6">
         <v>2499.9899999999998</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
-      <c r="H96" s="3">
-        <f t="shared" si="5"/>
+      <c r="H96" s="6">
+        <f t="shared" si="6"/>
         <v>4999.9799999999996</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="8">
         <v>0.2</v>
       </c>
-      <c r="J96" s="3">
-        <f t="shared" si="6"/>
+      <c r="J96" s="6">
+        <f t="shared" si="7"/>
         <v>499.99799999999999</v>
       </c>
-      <c r="K96" s="5">
-        <f t="shared" si="7"/>
+      <c r="K96" s="10">
+        <f t="shared" si="8"/>
         <v>3999.9839999999995</v>
       </c>
       <c r="L96" s="1">
@@ -6083,11 +6881,19 @@
         <v>148</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1464</v>
       </c>
@@ -6103,25 +6909,25 @@
       <c r="E97" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="6">
         <v>1549.99</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
-      <c r="H97" s="3">
-        <f t="shared" si="5"/>
+      <c r="H97" s="6">
+        <f t="shared" si="6"/>
         <v>3099.98</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="8">
         <v>0.05</v>
       </c>
-      <c r="J97" s="3">
-        <f t="shared" si="6"/>
+      <c r="J97" s="6">
+        <f t="shared" si="7"/>
         <v>77.499500000000012</v>
       </c>
-      <c r="K97" s="5">
-        <f t="shared" si="7"/>
+      <c r="K97" s="10">
+        <f t="shared" si="8"/>
         <v>2944.9809999999998</v>
       </c>
       <c r="L97" s="1">
@@ -6137,11 +6943,19 @@
         <v>148</v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1614</v>
       </c>
@@ -6157,25 +6971,25 @@
       <c r="E98" t="s">
         <v>22</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="6">
         <v>1499</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
-      <c r="H98" s="3">
-        <f t="shared" si="5"/>
+      <c r="H98" s="6">
+        <f t="shared" si="6"/>
         <v>1499</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J98" s="3">
-        <f t="shared" si="6"/>
+      <c r="J98" s="6">
+        <f t="shared" si="7"/>
         <v>104.93</v>
       </c>
-      <c r="K98" s="5">
-        <f t="shared" si="7"/>
+      <c r="K98" s="10">
+        <f t="shared" si="8"/>
         <v>1394.07</v>
       </c>
       <c r="L98" s="1">
@@ -6191,11 +7005,19 @@
         <v>153</v>
       </c>
       <c r="P98" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1614</v>
       </c>
@@ -6211,25 +7033,25 @@
       <c r="E99" t="s">
         <v>17</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="6">
         <v>2299.9899999999998</v>
       </c>
       <c r="G99">
         <v>2</v>
       </c>
-      <c r="H99" s="3">
-        <f t="shared" si="5"/>
+      <c r="H99" s="6">
+        <f t="shared" si="6"/>
         <v>4599.9799999999996</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J99" s="3">
-        <f t="shared" si="6"/>
+      <c r="J99" s="6">
+        <f t="shared" si="7"/>
         <v>160.99930000000001</v>
       </c>
-      <c r="K99" s="5">
-        <f t="shared" si="7"/>
+      <c r="K99" s="10">
+        <f t="shared" si="8"/>
         <v>4277.9813999999997</v>
       </c>
       <c r="L99" s="1">
@@ -6245,11 +7067,19 @@
         <v>153</v>
       </c>
       <c r="P99" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1614</v>
       </c>
@@ -6265,25 +7095,25 @@
       <c r="E100" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="6">
         <v>269.99</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
-      <c r="H100" s="3">
-        <f t="shared" si="5"/>
+      <c r="H100" s="6">
+        <f t="shared" si="6"/>
         <v>539.98</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="8">
         <v>0.2</v>
       </c>
-      <c r="J100" s="3">
-        <f t="shared" si="6"/>
+      <c r="J100" s="6">
+        <f t="shared" si="7"/>
         <v>53.998000000000005</v>
       </c>
-      <c r="K100" s="5">
-        <f t="shared" si="7"/>
+      <c r="K100" s="10">
+        <f t="shared" si="8"/>
         <v>431.98400000000004</v>
       </c>
       <c r="L100" s="1">
@@ -6299,13 +7129,47 @@
         <v>153</v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P101">
-        <f>COUNTIF(P2:P100, "YES")</f>
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <f>COUNTIF(B2:B100,1)</f>
+        <v>35</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="2">
+        <f>SUM(G2:G100)</f>
+        <v>146</v>
+      </c>
+      <c r="H101" s="11">
+        <f>SUM(H2:H100)</f>
+        <v>215290.71000000014</v>
+      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="9">
+        <f>SUM(J2:J100)</f>
+        <v>16399.289899999989</v>
+      </c>
+      <c r="K101" s="11">
+        <f>SUM(K2:K100)</f>
+        <v>189964.6777</v>
+      </c>
+      <c r="P101" s="2">
+        <f>COUNTIF(P2:P100,"YES")</f>
         <v>13</v>
       </c>
     </row>
@@ -6313,4 +7177,312 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B0669B-A8EB-4D1F-8021-CE894C392FA0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUMIFS(OrderDetailsData!$K2:$K100,OrderDetailsData!$Q2:$Q100,B1)</f>
+        <v>59358.072399999983</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUMIFS(OrderDetailsData!$K2:$K100,OrderDetailsData!$Q2:$Q100,C1)</f>
+        <v>106086.16819999999</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(OrderDetailsData!$K2:$K100,OrderDetailsData!$Q2:$Q100,D1)</f>
+        <v>24520.437100000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0EF86-128A-403E-A565-B029CC7D118E}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A2)</f>
+        <v>6822.5813999999991</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A2)</f>
+        <v>225.89100000000002</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A2)</f>
+        <v>9479.9557000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A3)</f>
+        <v>8280.5429999999997</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A4)</f>
+        <v>6086.0810000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A4)</f>
+        <v>16261.298200000001</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A4)</f>
+        <v>8936.4459999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A5)</f>
+        <v>1604.623</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A6)</f>
+        <v>6770.6331</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A7)</f>
+        <v>2155.172</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A7)</f>
+        <v>519.98400000000004</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A8)</f>
+        <v>502.1814</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A8)</f>
+        <v>32421.061499999996</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A9)</f>
+        <v>2760.768</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A9)</f>
+        <v>22044.626399999997</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A10)</f>
+        <v>24495.2919</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A11)</f>
+        <v>7105.7751000000007</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A11)</f>
+        <v>5454.4476999999997</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A12)</f>
+        <v>11884.4995</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A12)</f>
+        <v>6104.0353999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,B$1,OrderDetailsData!$R$2:$R$100,$A13)</f>
+        <v>6989.8379000000004</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,C$1,OrderDetailsData!$R$2:$R$100,$A13)</f>
+        <v>3058.9445000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIFS(OrderDetailsData!$K$2:$K$100,OrderDetailsData!$Q$2:$Q$100,D$1,OrderDetailsData!$R$2:$R$100,$A13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUM(B2:B13)</f>
+        <v>59358.072399999997</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:D14" si="0">SUM(C2:C13)</f>
+        <v>106086.16819999999</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>24520.437100000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fundementals/Solution/BikeStoreSample.xlsx
+++ b/Fundementals/Solution/BikeStoreSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Elevation\Excel\Fundementals\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4FC26A-0248-444C-9A9F-AA4FC8F3739B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF715D-3259-4E5E-A9CF-37F421A2BDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="2655" windowWidth="30120" windowHeight="11385" activeTab="1" xr2:uid="{E731B28F-D92B-4ABF-AE71-A2BC403318D1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E731B28F-D92B-4ABF-AE71-A2BC403318D1}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetailsData" sheetId="1" r:id="rId1"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4CAE42-8427-4763-99BF-87F494943F45}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7146,11 +7146,17 @@
         <f>COUNTIF(B2:B100,1)</f>
         <v>35</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2">
+        <f>COUNT(B2:B100)</f>
+        <v>99</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="9"/>
+      <c r="F101" s="9">
+        <f>AVERAGE(F2:F100)</f>
+        <v>1396.3851515151528</v>
+      </c>
       <c r="G101" s="2">
         <f>SUM(G2:G100)</f>
         <v>146</v>
@@ -7161,8 +7167,8 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="9">
-        <f>SUM(J2:J100)</f>
-        <v>16399.289899999989</v>
+        <f>AVERAGE(J2:J100)</f>
+        <v>165.64939292929282</v>
       </c>
       <c r="K101" s="11">
         <f>SUM(K2:K100)</f>
@@ -7183,7 +7189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B0669B-A8EB-4D1F-8021-CE894C392FA0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Fundementals/Solution/BikeStoreSample.xlsx
+++ b/Fundementals/Solution/BikeStoreSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Elevation\Excel\Fundementals\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF715D-3259-4E5E-A9CF-37F421A2BDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AED76F-78B9-41AE-BB8A-1E73AAC1F2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E731B28F-D92B-4ABF-AE71-A2BC403318D1}"/>
   </bookViews>
@@ -923,7 +923,7 @@
   <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
